--- a/Data/F1 project final.xlsx
+++ b/Data/F1 project final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soski\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soski\Documents\GitHub\f1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3778DF2E-6D85-456A-BC5F-5D2D9E6B415B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B684CE-833D-49BD-B851-0BBADC3DD4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3701" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3702" uniqueCount="186">
   <si>
     <t>year</t>
   </si>
@@ -595,6 +595,9 @@
   <si>
     <t xml:space="preserve">maybe add the full names of the races from the first slide </t>
   </si>
+  <si>
+    <t xml:space="preserve">Who won the championship by year that should also be scraped from the web </t>
+  </si>
 </sst>
 </file>
 
@@ -635,9 +638,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11916,10 +11922,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC695F3F-5450-4248-8FD3-C5DB5EAC9FD6}">
-  <dimension ref="A1:L673"/>
+  <dimension ref="A1:Q673"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11930,7 +11936,7 @@
     <col min="6" max="6" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -11967,8 +11973,14 @@
       <c r="L1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1983</v>
       </c>
@@ -12005,8 +12017,12 @@
       <c r="L2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1983</v>
       </c>
@@ -12040,8 +12056,12 @@
       <c r="L3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1983</v>
       </c>
@@ -12076,7 +12096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1983</v>
       </c>
@@ -12111,7 +12131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1983</v>
       </c>
@@ -12146,7 +12166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1983</v>
       </c>
@@ -12181,7 +12201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1983</v>
       </c>
@@ -12216,7 +12236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1983</v>
       </c>
@@ -12251,7 +12271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1983</v>
       </c>
@@ -12286,7 +12306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1983</v>
       </c>
@@ -12321,7 +12341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1983</v>
       </c>
@@ -12356,7 +12376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1983</v>
       </c>
@@ -12391,7 +12411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1983</v>
       </c>
@@ -12426,7 +12446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1983</v>
       </c>
@@ -12461,7 +12481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1983</v>
       </c>
@@ -35492,6 +35512,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N1:Q3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>